--- a/book/ch4-spreadsheets/res/property_pivot_start.xlsx
+++ b/book/ch4-spreadsheets/res/property_pivot_start.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\libraries\Documents\GitHub\computer-apps-primer\book\ch4-spreadsheets\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eric.kuha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7A3CFE7B-5C3C-4829-9F44-95B73AA3AF00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="property_pivot_start" sheetId="1" r:id="rId1"/>
@@ -247,7 +246,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -681,7 +684,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -724,12 +727,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -757,6 +763,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="42" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -1085,9 +1092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1098,10 +1103,9 @@
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1161,12 +1165,14 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>43065</v>
       </c>
-      <c r="J2">
+      <c r="I2" s="2"/>
+      <c r="J2" s="3">
         <v>345000</v>
       </c>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1190,16 +1196,16 @@
       <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>42934</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>43132</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>245000</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>238500</v>
       </c>
     </row>
@@ -1225,16 +1231,16 @@
       <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>43032</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>43088</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>199000</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>199000</v>
       </c>
     </row>
@@ -1260,16 +1266,16 @@
       <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>43391</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>43123</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>398000</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>387500</v>
       </c>
     </row>
@@ -1295,16 +1301,16 @@
       <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>43068</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>43453</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>329000</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>319500</v>
       </c>
     </row>
@@ -1330,12 +1336,14 @@
       <c r="G7" t="s">
         <v>23</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>43021</v>
       </c>
-      <c r="J7">
+      <c r="I7" s="2"/>
+      <c r="J7" s="3">
         <v>478500</v>
       </c>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1359,16 +1367,16 @@
       <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>42983</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>42751</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>213000</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>199500</v>
       </c>
     </row>
@@ -1394,16 +1402,16 @@
       <c r="G9" t="s">
         <v>14</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>43037</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>43149</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>278500</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>277000</v>
       </c>
     </row>
@@ -1429,12 +1437,14 @@
       <c r="G10" t="s">
         <v>23</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>42958</v>
       </c>
-      <c r="J10">
+      <c r="I10" s="2"/>
+      <c r="J10" s="3">
         <v>278500</v>
       </c>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1458,16 +1468,16 @@
       <c r="G11" t="s">
         <v>18</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>43038</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>43129</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>176500</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>174300</v>
       </c>
     </row>
@@ -1493,16 +1503,16 @@
       <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>43055</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>43113</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>223750</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>219750</v>
       </c>
     </row>
@@ -1528,12 +1538,14 @@
       <c r="G13" t="s">
         <v>35</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>43054</v>
       </c>
-      <c r="J13">
+      <c r="I13" s="2"/>
+      <c r="J13" s="3">
         <v>135000</v>
       </c>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1557,16 +1569,16 @@
       <c r="G14" t="s">
         <v>18</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>43105</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>43119</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>165900</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>168000</v>
       </c>
     </row>
@@ -1592,16 +1604,16 @@
       <c r="G15" t="s">
         <v>23</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>42993</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>43097</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>415500</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>419500</v>
       </c>
     </row>
@@ -1627,16 +1639,16 @@
       <c r="G16" t="s">
         <v>23</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>42993</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>43097</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>415500</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>419500</v>
       </c>
     </row>
@@ -1662,16 +1674,16 @@
       <c r="G17" t="s">
         <v>23</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>42993</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>43097</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>415500</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <v>419500</v>
       </c>
     </row>
@@ -1697,12 +1709,14 @@
       <c r="G18" t="s">
         <v>14</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>42989</v>
       </c>
-      <c r="J18">
+      <c r="I18" s="2"/>
+      <c r="J18" s="3">
         <v>199500</v>
       </c>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1726,16 +1740,16 @@
       <c r="G19" t="s">
         <v>35</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>43011</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>43119</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>175500</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <v>169500</v>
       </c>
     </row>
@@ -1761,16 +1775,16 @@
       <c r="G20" t="s">
         <v>14</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>43090</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>43146</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>319750</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>315750</v>
       </c>
     </row>
@@ -1796,12 +1810,14 @@
       <c r="G21" t="s">
         <v>23</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>43023</v>
       </c>
-      <c r="J21">
+      <c r="I21" s="2"/>
+      <c r="J21" s="3">
         <v>289500</v>
       </c>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1825,12 +1841,14 @@
       <c r="G22" t="s">
         <v>23</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <v>42956</v>
       </c>
-      <c r="J22">
+      <c r="I22" s="2"/>
+      <c r="J22" s="3">
         <v>525750</v>
       </c>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1854,16 +1872,16 @@
       <c r="G23" t="s">
         <v>14</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="2">
         <v>43053</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <v>43156</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>495000</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
         <v>495000</v>
       </c>
     </row>
@@ -1889,16 +1907,16 @@
       <c r="G24" t="s">
         <v>14</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="2">
         <v>42953</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <v>43115</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>369500</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <v>362500</v>
       </c>
     </row>
@@ -1924,12 +1942,14 @@
       <c r="G25" t="s">
         <v>44</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>43104</v>
       </c>
-      <c r="J25">
+      <c r="I25" s="2"/>
+      <c r="J25" s="3">
         <v>176500</v>
       </c>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1953,12 +1973,14 @@
       <c r="G26" t="s">
         <v>18</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="2">
         <v>42980</v>
       </c>
-      <c r="J26">
+      <c r="I26" s="2"/>
+      <c r="J26" s="3">
         <v>142500</v>
       </c>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1982,16 +2004,16 @@
       <c r="G27" t="s">
         <v>23</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="2">
         <v>42993</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <v>43097</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>415500</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <v>419500</v>
       </c>
     </row>
@@ -2017,16 +2039,16 @@
       <c r="G28" t="s">
         <v>23</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="2">
         <v>43025</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="2">
         <v>43144</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>314250</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <v>309750</v>
       </c>
     </row>
@@ -2052,12 +2074,14 @@
       <c r="G29" t="s">
         <v>18</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="2">
         <v>42970</v>
       </c>
-      <c r="J29">
+      <c r="I29" s="2"/>
+      <c r="J29" s="3">
         <v>178500</v>
       </c>
+      <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2081,16 +2105,16 @@
       <c r="G30" t="s">
         <v>14</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="2">
         <v>43111</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <v>43156</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>305000</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="3">
         <v>302750</v>
       </c>
     </row>
@@ -2116,16 +2140,16 @@
       <c r="G31" t="s">
         <v>14</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <v>43039</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <v>43146</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>435000</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="3">
         <v>429500</v>
       </c>
     </row>
@@ -2151,16 +2175,16 @@
       <c r="G32" t="s">
         <v>14</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <v>42989</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="2">
         <v>43146</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>385000</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <v>375500</v>
       </c>
     </row>
@@ -2186,16 +2210,16 @@
       <c r="G33" t="s">
         <v>23</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <v>42983</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <v>43025</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <v>405000</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <v>405000</v>
       </c>
     </row>
@@ -2221,16 +2245,16 @@
       <c r="G34" t="s">
         <v>18</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>42949</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <v>43069</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="3">
         <v>159000</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="3">
         <v>158500</v>
       </c>
     </row>
@@ -2256,16 +2280,16 @@
       <c r="G35" t="s">
         <v>14</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <v>42953</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <v>43080</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="3">
         <v>278000</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="3">
         <v>276500</v>
       </c>
     </row>
@@ -2291,16 +2315,16 @@
       <c r="G36" t="s">
         <v>18</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>42919</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <v>43156</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="3">
         <v>178600</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="3">
         <v>175500</v>
       </c>
     </row>
@@ -2326,16 +2350,16 @@
       <c r="G37" t="s">
         <v>23</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2">
         <v>42971</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <v>43117</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="3">
         <v>435000</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="3">
         <v>431750</v>
       </c>
     </row>
@@ -2361,16 +2385,16 @@
       <c r="G38" t="s">
         <v>14</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="2">
         <v>42935</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="2">
         <v>43080</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="3">
         <v>345500</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="3">
         <v>342500</v>
       </c>
     </row>
@@ -2396,16 +2420,16 @@
       <c r="G39" t="s">
         <v>23</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="2">
         <v>42970</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
         <v>43088</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="3">
         <v>418500</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="3">
         <v>422500</v>
       </c>
     </row>
@@ -2431,12 +2455,14 @@
       <c r="G40" t="s">
         <v>14</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="2">
         <v>43055</v>
       </c>
-      <c r="J40">
+      <c r="I40" s="2"/>
+      <c r="J40" s="3">
         <v>375500</v>
       </c>
+      <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -2460,12 +2486,14 @@
       <c r="G41" t="s">
         <v>18</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="2">
         <v>43011</v>
       </c>
-      <c r="J41">
+      <c r="I41" s="2"/>
+      <c r="J41" s="3">
         <v>169500</v>
       </c>
+      <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -2489,16 +2517,16 @@
       <c r="G42" t="s">
         <v>23</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="2">
         <v>42993</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="2">
         <v>43097</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="3">
         <v>415500</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="3">
         <v>419500</v>
       </c>
     </row>
@@ -2524,16 +2552,16 @@
       <c r="G43" t="s">
         <v>23</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="2">
         <v>42962</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="2">
         <v>43127</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="3">
         <v>298500</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="3">
         <v>298500</v>
       </c>
     </row>
@@ -2559,16 +2587,16 @@
       <c r="G44" t="s">
         <v>14</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="2">
         <v>42927</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <v>43122</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="3">
         <v>331750</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="3">
         <v>330500</v>
       </c>
     </row>
@@ -2594,16 +2622,16 @@
       <c r="G45" t="s">
         <v>14</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="2">
         <v>42950</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="2">
         <v>43080</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="3">
         <v>385500</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="3">
         <v>383500</v>
       </c>
     </row>
@@ -2629,16 +2657,16 @@
       <c r="G46" t="s">
         <v>14</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="2">
         <v>43004</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="2">
         <v>43134</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="3">
         <v>322500</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="3">
         <v>319500</v>
       </c>
     </row>
@@ -2664,16 +2692,16 @@
       <c r="G47" t="s">
         <v>14</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="2">
         <v>42952</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="2">
         <v>43055</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="3">
         <v>365500</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="3">
         <v>365500</v>
       </c>
     </row>
@@ -2699,12 +2727,14 @@
       <c r="G48" t="s">
         <v>18</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="2">
         <v>42930</v>
       </c>
-      <c r="J48">
+      <c r="I48" s="2"/>
+      <c r="J48" s="3">
         <v>312750</v>
       </c>
+      <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -2728,16 +2758,16 @@
       <c r="G49" t="s">
         <v>14</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="2">
         <v>42910</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="2">
         <v>43104</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="3">
         <v>309500</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="3">
         <v>304500</v>
       </c>
     </row>
@@ -2763,16 +2793,16 @@
       <c r="G50" t="s">
         <v>18</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <v>43023</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <v>43136</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="3">
         <v>204500</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="3">
         <v>203900</v>
       </c>
     </row>
@@ -2798,12 +2828,14 @@
       <c r="G51" t="s">
         <v>14</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="2">
         <v>42920</v>
       </c>
-      <c r="J51">
+      <c r="I51" s="2"/>
+      <c r="J51" s="3">
         <v>225500</v>
       </c>
+      <c r="K51" s="3"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -2827,16 +2859,16 @@
       <c r="G52" t="s">
         <v>23</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="2">
         <v>42993</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="2">
         <v>43097</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="3">
         <v>415500</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="3">
         <v>419500</v>
       </c>
     </row>
@@ -2862,16 +2894,16 @@
       <c r="G53" t="s">
         <v>14</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="2">
         <v>42979</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="2">
         <v>43013</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="3">
         <v>209500</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="3">
         <v>209500</v>
       </c>
     </row>
@@ -2897,16 +2929,16 @@
       <c r="G54" t="s">
         <v>23</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="2">
         <v>43020</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="2">
         <v>43115</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="3">
         <v>272500</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="3">
         <v>271500</v>
       </c>
     </row>
@@ -2932,16 +2964,16 @@
       <c r="G55" t="s">
         <v>23</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="2">
         <v>43038</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="2">
         <v>43156</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="3">
         <v>389500</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="3">
         <v>395000</v>
       </c>
     </row>
@@ -2967,16 +2999,16 @@
       <c r="G56" t="s">
         <v>14</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="2">
         <v>42892</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="2">
         <v>43123</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="3">
         <v>348500</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="3">
         <v>349500</v>
       </c>
     </row>
@@ -3002,16 +3034,16 @@
       <c r="G57" t="s">
         <v>18</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="2">
         <v>43132</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="2">
         <v>43174</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="3">
         <v>299950</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="3">
         <v>299950</v>
       </c>
     </row>
